--- a/test_case/Authentication/login/login_compatibility_testing(nadira).xlsx
+++ b/test_case/Authentication/login/login_compatibility_testing(nadira).xlsx
@@ -99,9 +99,6 @@
     <t>Mobile UI responsive</t>
   </si>
   <si>
-    <t>TC-LC-008</t>
-  </si>
-  <si>
     <t>Valid credentials</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>User redirected to dashboard</t>
   </si>
   <si>
-    <t>TC-LC-009</t>
-  </si>
-  <si>
     <t>Login test on Firefox</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
   </si>
   <si>
     <t>Login successful</t>
-  </si>
-  <si>
-    <t>TC-LC-010</t>
   </si>
   <si>
     <t>Login on Mobile</t>
@@ -159,6 +150,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 2.Navigate to Login "</t>
@@ -169,6 +161,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://ai-quizwhiz.zluck.com</t>
     </r>
@@ -177,6 +170,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>"</t>
@@ -202,12 +196,21 @@
       <t>"https://ai-quizwhiz.zluck.com"</t>
     </r>
   </si>
+  <si>
+    <t>TC-LC-004</t>
+  </si>
+  <si>
+    <t>TC-LC-006</t>
+  </si>
+  <si>
+    <t>TC-LC-007</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -218,6 +221,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,18 +229,21 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -270,6 +277,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -647,7 +661,7 @@
   <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -662,7 +676,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -712,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>11</v>
@@ -754,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>15</v>
@@ -787,7 +801,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="17">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>9</v>
@@ -826,10 +840,10 @@
     </row>
     <row r="6" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B6" s="17">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>21</v>
@@ -868,22 +882,22 @@
     </row>
     <row r="7" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="17">
+        <v>105</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="17">
-        <v>110</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>12</v>
@@ -910,22 +924,22 @@
     </row>
     <row r="8" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="17">
+        <v>106</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="17">
-        <v>111</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>12</v>
@@ -952,22 +966,22 @@
     </row>
     <row r="9" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B9" s="17">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>12</v>
